--- a/IPPUSNEG informacion..xlsx
+++ b/IPPUSNEG informacion..xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="51">
   <si>
     <t>Cedula</t>
   </si>
@@ -106,6 +106,66 @@
   </si>
   <si>
     <t>19703358</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>25/09/2025</t>
+  </si>
+  <si>
+    <t>10:26</t>
+  </si>
+  <si>
+    <t>v19703358</t>
+  </si>
+  <si>
+    <t>Exámenes</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Anulado</t>
+  </si>
+  <si>
+    <t>V27375464</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>GUZMAN MATA</t>
+  </si>
+  <si>
+    <t>Curagua 2</t>
+  </si>
+  <si>
+    <t>04129778551</t>
+  </si>
+  <si>
+    <t>jdgm464@gmail.com</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>29/09/2025</t>
+  </si>
+  <si>
+    <t>12:31</t>
+  </si>
+  <si>
+    <t>27375464</t>
   </si>
 </sst>
 </file>
@@ -150,7 +210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -455,6 +515,52 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -462,7 +568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -514,6 +620,15 @@
       <c r="O1" t="s" s="0">
         <v>26</v>
       </c>
+      <c r="P1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -560,6 +675,127 @@
       </c>
       <c r="O2" t="s" s="0">
         <v>12</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/IPPUSNEG informacion..xlsx
+++ b/IPPUSNEG informacion..xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="56">
   <si>
     <t>Cedula</t>
   </si>
@@ -166,6 +166,21 @@
   </si>
   <si>
     <t>27375464</t>
+  </si>
+  <si>
+    <t>V27375465</t>
+  </si>
+  <si>
+    <t>Henry ramon</t>
+  </si>
+  <si>
+    <t>Guzman mata</t>
+  </si>
+  <si>
+    <t>curagua 2</t>
+  </si>
+  <si>
+    <t>04128350123</t>
   </si>
 </sst>
 </file>
@@ -210,7 +225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -559,6 +574,29 @@
       </c>
       <c r="G15" t="s" s="0">
         <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/IPPUSNEG informacion..xlsx
+++ b/IPPUSNEG informacion..xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="63">
   <si>
     <t>Cedula</t>
   </si>
@@ -181,6 +181,27 @@
   </si>
   <si>
     <t>04128350123</t>
+  </si>
+  <si>
+    <t>Jose Daniel</t>
+  </si>
+  <si>
+    <t>Guzman Mata</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>10/10/2025</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>AC. ANTI RO(SSA); AC. ANTI LA (SSB); ACS. ANTI-CCP</t>
+  </si>
+  <si>
+    <t>75.22</t>
   </si>
 </sst>
 </file>
@@ -225,7 +246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -599,6 +620,52 @@
         <v>12</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -606,7 +673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -836,6 +903,62 @@
         <v>39</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="R5" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/IPPUSNEG informacion..xlsx
+++ b/IPPUSNEG informacion..xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="90">
   <si>
     <t>Cedula</t>
   </si>
@@ -202,6 +202,87 @@
   </si>
   <si>
     <t>75.22</t>
+  </si>
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
+    <t>16/10/2025</t>
+  </si>
+  <si>
+    <t>20:03</t>
+  </si>
+  <si>
+    <t>HEMATOLOGIA COMPLETA</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>jose daniel</t>
+  </si>
+  <si>
+    <t>guzman mata</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>20:32</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t>21:02</t>
+  </si>
+  <si>
+    <t>V28099876</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>perez</t>
+  </si>
+  <si>
+    <t>27/10/2025</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>28099876</t>
+  </si>
+  <si>
+    <t>V29089134</t>
+  </si>
+  <si>
+    <t>alejandro</t>
+  </si>
+  <si>
+    <t>mata</t>
+  </si>
+  <si>
+    <t>guamo</t>
+  </si>
+  <si>
+    <t>0412998441</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>16:03</t>
+  </si>
+  <si>
+    <t>29089134</t>
+  </si>
+  <si>
+    <t>HEMATOLOGIA COMPLETA; HEMATOLOGIA COMPLETA</t>
+  </si>
+  <si>
+    <t>11.0</t>
   </si>
 </sst>
 </file>
@@ -246,7 +327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -666,6 +747,282 @@
         <v>46</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -673,7 +1030,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -737,7 +1094,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>12</v>
@@ -749,28 +1106,28 @@
         <v>12</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="0">
         <v>12</v>
@@ -782,10 +1139,10 @@
         <v>12</v>
       </c>
       <c r="P2" t="s" s="0">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>39</v>
@@ -793,7 +1150,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>12</v>
@@ -805,31 +1162,31 @@
         <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s" s="0">
         <v>12</v>
@@ -838,18 +1195,18 @@
         <v>12</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>12</v>
@@ -861,10 +1218,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>12</v>
@@ -894,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="s" s="0">
         <v>38</v>
@@ -917,31 +1274,31 @@
         <v>12</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="N5" t="s" s="0">
         <v>12</v>
@@ -950,12 +1307,68 @@
         <v>12</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="Q6" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="R6" t="s" s="0">
         <v>39</v>
       </c>
     </row>
